--- a/teaching/traditional_assets/database/data/cayman_islands/cayman_islands_drugs_biotechnology.xlsx
+++ b/teaching/traditional_assets/database/data/cayman_islands/cayman_islands_drugs_biotechnology.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,8 +590,23 @@
           <t>Drugs (Biotechnology)</t>
         </is>
       </c>
+      <c r="G2">
+        <v>-0.8100426338228327</v>
+      </c>
+      <c r="H2">
+        <v>-5.613453339649454</v>
+      </c>
+      <c r="I2">
+        <v>-5.141133279328181</v>
+      </c>
+      <c r="J2">
+        <v>-5.141133279328181</v>
+      </c>
       <c r="K2">
-        <v>-70.40000000000001</v>
+        <v>-110.4</v>
+      </c>
+      <c r="L2">
+        <v>-5.229748934154428</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,73 +630,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>33.3</v>
+        <v>46.59999999999999</v>
       </c>
       <c r="V2">
-        <v>0.09120788824979456</v>
+        <v>0.1081206496519721</v>
       </c>
       <c r="W2">
-        <v>-0.4649933949801849</v>
+        <v>-5.219830295411691</v>
       </c>
       <c r="X2">
-        <v>0.1061823800403632</v>
+        <v>0.06477037355041163</v>
       </c>
       <c r="Y2">
-        <v>-0.5711757750205482</v>
+        <v>-5.284600668962102</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.4335893727325336</v>
       </c>
       <c r="AA2">
-        <v>-0.8869181755975994</v>
+        <v>0.4517368329048101</v>
       </c>
       <c r="AB2">
-        <v>0.1017989891230777</v>
+        <v>0.06226114572961206</v>
       </c>
       <c r="AC2">
-        <v>-0.9887171647206772</v>
+        <v>0.3894756871751981</v>
       </c>
       <c r="AD2">
-        <v>12</v>
+        <v>21.78</v>
       </c>
       <c r="AE2">
-        <v>13.5874823789079</v>
+        <v>0.6866176330895362</v>
       </c>
       <c r="AF2">
-        <v>25.5874823789079</v>
+        <v>22.46661763308954</v>
       </c>
       <c r="AG2">
-        <v>-7.7125176210921</v>
+        <v>-24.13338236691046</v>
       </c>
       <c r="AH2">
-        <v>0.06549347888779272</v>
+        <v>0.04954414891741338</v>
       </c>
       <c r="AI2">
-        <v>0.2293042358642228</v>
+        <v>0.3046873908006267</v>
       </c>
       <c r="AJ2">
-        <v>-0.02158026792028258</v>
+        <v>-0.05931521860236229</v>
       </c>
       <c r="AK2">
-        <v>-0.09851533587149811</v>
+        <v>-0.8893290495232156</v>
       </c>
       <c r="AL2">
-        <v>0.386</v>
+        <v>2.547</v>
       </c>
       <c r="AM2">
-        <v>-2.074</v>
+        <v>1.28</v>
       </c>
       <c r="AN2">
-        <v>-0.1837390904915021</v>
+        <v>-0.2112676056338028</v>
       </c>
       <c r="AO2">
-        <v>-188.3419689119171</v>
+        <v>-42.83470749901846</v>
       </c>
       <c r="AP2">
-        <v>0.1180909144249288</v>
+        <v>0.2340955880855008</v>
       </c>
       <c r="AQ2">
-        <v>35.05303760848602</v>
+        <v>-85.23437499999999</v>
       </c>
     </row>
     <row r="3">
@@ -692,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tanvex BioPharma, Inc. (TSEC:6541)</t>
+          <t>Stealth BioTherapeutics Corp (NasdaqGM:MITO)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -700,8 +715,23 @@
           <t>Drugs (Biotechnology)</t>
         </is>
       </c>
+      <c r="G3">
+        <v>-0.5165876777251184</v>
+      </c>
+      <c r="H3">
+        <v>-2.156398104265403</v>
+      </c>
+      <c r="I3">
+        <v>-1.570110119744925</v>
+      </c>
+      <c r="J3">
+        <v>-1.570110119744925</v>
+      </c>
       <c r="K3">
-        <v>-70.40000000000001</v>
+        <v>-35.4</v>
+      </c>
+      <c r="L3">
+        <v>-1.677725118483412</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -725,73 +755,198 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>33.3</v>
+        <v>19.9</v>
       </c>
       <c r="V3">
-        <v>0.09120788824979456</v>
+        <v>0.2525380710659899</v>
       </c>
       <c r="W3">
-        <v>-0.4649933949801849</v>
+        <v>-9.567567567567567</v>
       </c>
       <c r="X3">
-        <v>0.1061823800403632</v>
+        <v>0.0669883970030922</v>
       </c>
       <c r="Y3">
-        <v>-0.5711757750205482</v>
+        <v>-9.634555964570659</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-1.317647922003059</v>
       </c>
       <c r="AA3">
-        <v>-0.8869181755975994</v>
+        <v>2.068852336597874</v>
       </c>
       <c r="AB3">
-        <v>0.1017989891230777</v>
+        <v>0.06307146927988766</v>
       </c>
       <c r="AC3">
-        <v>-0.9887171647206772</v>
+        <v>2.005780867317986</v>
       </c>
       <c r="AD3">
-        <v>12</v>
+        <v>8.98</v>
       </c>
       <c r="AE3">
-        <v>13.5874823789079</v>
+        <v>0.6866176330895362</v>
       </c>
       <c r="AF3">
-        <v>25.5874823789079</v>
+        <v>9.666617633089537</v>
       </c>
       <c r="AG3">
-        <v>-7.7125176210921</v>
+        <v>-10.23338236691046</v>
       </c>
       <c r="AH3">
-        <v>0.06549347888779272</v>
+        <v>0.1092685341851918</v>
       </c>
       <c r="AI3">
-        <v>0.2293042358642228</v>
+        <v>0.8098288753333838</v>
       </c>
       <c r="AJ3">
-        <v>-0.02158026792028258</v>
+        <v>-0.1492472973024695</v>
       </c>
       <c r="AK3">
-        <v>-0.09851533587149811</v>
+        <v>1.285054753798126</v>
       </c>
       <c r="AL3">
-        <v>0.386</v>
+        <v>2.08</v>
       </c>
       <c r="AM3">
-        <v>-2.074</v>
+        <v>1.726</v>
       </c>
       <c r="AN3">
-        <v>-0.1837390904915021</v>
+        <v>-0.2746849382111832</v>
       </c>
       <c r="AO3">
-        <v>-188.3419689119171</v>
+        <v>-16.20192307692308</v>
       </c>
       <c r="AP3">
-        <v>0.1180909144249288</v>
+        <v>0.3130240538024734</v>
       </c>
       <c r="AQ3">
-        <v>35.05303760848602</v>
+        <v>-19.52491309385864</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cayman Islands</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tanvex BioPharma, Inc. (TSEC:6541)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Drugs (Biotechnology)</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>-620.0000000000002</v>
+      </c>
+      <c r="H4">
+        <v>-7300</v>
+      </c>
+      <c r="I4">
+        <v>-7540</v>
+      </c>
+      <c r="J4">
+        <v>-7540</v>
+      </c>
+      <c r="K4">
+        <v>-75</v>
+      </c>
+      <c r="L4">
+        <v>-7500</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>26.7</v>
+      </c>
+      <c r="V4">
+        <v>0.075809199318569</v>
+      </c>
+      <c r="W4">
+        <v>-0.8720930232558139</v>
+      </c>
+      <c r="X4">
+        <v>0.06255235009773107</v>
+      </c>
+      <c r="Y4">
+        <v>-0.934645373353545</v>
+      </c>
+      <c r="Z4">
+        <v>0.0001545595054095827</v>
+      </c>
+      <c r="AA4">
+        <v>-1.165378670788253</v>
+      </c>
+      <c r="AB4">
+        <v>0.06145082217933646</v>
+      </c>
+      <c r="AC4">
+        <v>-1.22682949296759</v>
+      </c>
+      <c r="AD4">
+        <v>12.8</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>12.8</v>
+      </c>
+      <c r="AG4">
+        <v>-13.9</v>
+      </c>
+      <c r="AH4">
+        <v>0.03506849315068494</v>
+      </c>
+      <c r="AI4">
+        <v>0.2071197411003236</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.04108779190067986</v>
+      </c>
+      <c r="AK4">
+        <v>-0.396011396011396</v>
+      </c>
+      <c r="AL4">
+        <v>0.467</v>
+      </c>
+      <c r="AM4">
+        <v>-0.446</v>
+      </c>
+      <c r="AN4">
+        <v>-0.1818181818181818</v>
+      </c>
+      <c r="AO4">
+        <v>-161.4561027837259</v>
+      </c>
+      <c r="AP4">
+        <v>0.1974431818181818</v>
+      </c>
+      <c r="AQ4">
+        <v>169.0582959641256</v>
       </c>
     </row>
   </sheetData>
